--- a/course_project/data/cum_and_ann_installed_cap_bundesland_shift.xlsx
+++ b/course_project/data/cum_and_ann_installed_cap_bundesland_shift.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi Eckmann\Desktop\ETH Studium\MASTERSTUDIUM\2. Semester\Big Data for Public Policy\big_data_policy_2020\course_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946C2F15-288F-4100-9D74-34441633D0F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98DE2BF-AE63-43EF-8B67-2487CCDD4BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O501"/>
+  <dimension ref="A1:O499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1158,7 +1158,7 @@
         <v>419</v>
       </c>
       <c r="I14">
-        <v>19683</v>
+        <v>18853</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="5"/>
-        <v>28789.61625546305</v>
+        <v>27575.605104112426</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1208,7 +1208,7 @@
         <v>755</v>
       </c>
       <c r="I15">
-        <v>18853</v>
+        <v>61137</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="5"/>
-        <v>11297.630511812085</v>
+        <v>36636.250814228799</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1258,7 +1258,7 @@
         <v>21116</v>
       </c>
       <c r="I16">
-        <v>61137</v>
+        <v>150304</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="5"/>
-        <v>10473.452760080379</v>
+        <v>25748.758422086808</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1308,7 +1308,7 @@
         <v>47710</v>
       </c>
       <c r="I17">
-        <v>150304</v>
+        <v>144406</v>
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="5"/>
-        <v>20105.433673230524</v>
+        <v>19316.486953218322</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -1358,7 +1358,7 @@
         <v>34112</v>
       </c>
       <c r="I18">
-        <v>14312</v>
+        <v>379917</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="5"/>
-        <v>817.36776283724839</v>
+        <v>21697.310533387292</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -1408,7 +1408,7 @@
         <v>19858</v>
       </c>
       <c r="I19">
-        <v>144406</v>
+        <v>76346</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="5"/>
-        <v>37790.400224011348</v>
+        <v>19979.404564231198</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -1458,7 +1458,7 @@
         <v>2571</v>
       </c>
       <c r="I20">
-        <v>379917</v>
+        <v>21435</v>
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="5"/>
-        <v>352794.51080390642</v>
+        <v>19904.743244134206</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -1508,7 +1508,7 @@
         <v>18450</v>
       </c>
       <c r="I21">
-        <v>76346</v>
+        <v>36618</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="5"/>
-        <v>16317.163285121624</v>
+        <v>7826.2369367692281</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1558,7 +1558,7 @@
         <v>20454</v>
       </c>
       <c r="I22">
-        <v>21435</v>
+        <v>20503</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="5"/>
-        <v>7592.114826353617</v>
+        <v>7262.0074777106702</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -1608,7 +1608,7 @@
         <v>15804</v>
       </c>
       <c r="I23">
-        <v>36618</v>
+        <v>50969</v>
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="5"/>
-        <v>13825.772163598551</v>
+        <v>19244.245491464706</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -1658,7 +1658,7 @@
         <v>16202</v>
       </c>
       <c r="I24">
-        <v>20503</v>
+        <v>17029</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="5"/>
-        <v>7971.4035665450665</v>
+        <v>6620.7399568207538</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -1708,7 +1708,7 @@
         <v>35748</v>
       </c>
       <c r="I25">
-        <v>50969</v>
+        <v>255866</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="5"/>
-        <v>5022.215635724272</v>
+        <v>25211.682117566099</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -1758,7 +1758,7 @@
         <v>70542</v>
       </c>
       <c r="I26">
-        <v>17029</v>
+        <v>283121</v>
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="5"/>
-        <v>1446.782342985374</v>
+        <v>24053.935270912098</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -5702,7 +5702,7 @@
         <v>5.9</v>
       </c>
       <c r="F105">
-        <f t="shared" ref="F12:F120" si="12">16.61*0.51</f>
+        <f t="shared" ref="F105:F120" si="12">16.61*0.51</f>
         <v>8.4710999999999999</v>
       </c>
       <c r="G105">
@@ -26133,6 +26133,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I489" s="1"/>
+    </row>
+    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I490" s="1"/>
+    </row>
     <row r="491" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I491" s="1"/>
     </row>
@@ -26159,12 +26165,6 @@
     </row>
     <row r="499" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I499" s="1"/>
-    </row>
-    <row r="500" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I500" s="1"/>
-    </row>
-    <row r="501" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I501" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/course_project/data/cum_and_ann_installed_cap_bundesland_shift.xlsx
+++ b/course_project/data/cum_and_ann_installed_cap_bundesland_shift.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi Eckmann\Desktop\ETH Studium\MASTERSTUDIUM\2. Semester\Big Data for Public Policy\big_data_policy_2020\course_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8A45F9-AD9E-430B-B424-D57CCB5E7D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1349C556-4DE5-4180-9999-C8FE4D8A54C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A484" workbookViewId="0">
-      <selection activeCell="F494" sqref="F494"/>
+    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
+      <selection activeCell="N506" sqref="N506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1106,7 +1106,7 @@
         <v>280.37005402577978</v>
       </c>
       <c r="O18">
-        <f t="shared" ref="O3:O75" si="5">(I18/G18)*10^6</f>
+        <f t="shared" ref="O18:O75" si="5">(I18/G18)*10^6</f>
         <v>24283.931756556794</v>
       </c>
     </row>
@@ -6467,7 +6467,7 @@
         <v>5.9</v>
       </c>
       <c r="F126">
-        <f t="shared" ref="F115:F129" si="13">16.61*0.51</f>
+        <f t="shared" ref="F126:F129" si="13">16.61*0.51</f>
         <v>8.4710999999999999</v>
       </c>
       <c r="G126">
@@ -6716,7 +6716,7 @@
         <v>292.26116375336346</v>
       </c>
       <c r="O130">
-        <f t="shared" ref="O76:O139" si="14">(I130/G130)*10^6</f>
+        <f t="shared" ref="O130:O139" si="14">(I130/G130)*10^6</f>
         <v>27920.476038841207</v>
       </c>
     </row>
@@ -25566,10 +25566,6 @@
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N482">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
       <c r="O482" t="e">
         <f t="shared" si="61"/>
         <v>#DIV/0!</v>
@@ -25611,10 +25607,6 @@
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N483">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
       <c r="O483" t="e">
         <f t="shared" si="61"/>
         <v>#DIV/0!</v>
@@ -25656,10 +25648,6 @@
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N484">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
       <c r="O484" t="e">
         <f t="shared" si="61"/>
         <v>#DIV/0!</v>
@@ -25701,10 +25689,6 @@
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N485">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
       <c r="O485" t="e">
         <f t="shared" si="61"/>
         <v>#DIV/0!</v>
@@ -25746,10 +25730,6 @@
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N486">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
       <c r="O486" t="e">
         <f t="shared" si="61"/>
         <v>#DIV/0!</v>
@@ -25791,10 +25771,6 @@
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N487">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
       <c r="O487" t="e">
         <f t="shared" si="61"/>
         <v>#DIV/0!</v>
@@ -25836,10 +25812,6 @@
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N488">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
       <c r="O488" t="e">
         <f t="shared" si="61"/>
         <v>#DIV/0!</v>
@@ -25881,10 +25853,6 @@
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N489">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
       <c r="O489" t="e">
         <f t="shared" si="61"/>
         <v>#DIV/0!</v>
@@ -25926,10 +25894,6 @@
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N490">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
       <c r="O490" t="e">
         <f t="shared" si="61"/>
         <v>#DIV/0!</v>
@@ -25971,10 +25935,6 @@
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N491">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
       <c r="O491" t="e">
         <f t="shared" si="61"/>
         <v>#DIV/0!</v>
@@ -26016,10 +25976,6 @@
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N492">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
       <c r="O492" t="e">
         <f t="shared" si="61"/>
         <v>#DIV/0!</v>
@@ -26061,10 +26017,6 @@
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N493">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
       <c r="O493" t="e">
         <f t="shared" si="61"/>
         <v>#DIV/0!</v>
@@ -26106,10 +26058,6 @@
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N494">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
       <c r="O494" t="e">
         <f t="shared" si="61"/>
         <v>#DIV/0!</v>
@@ -26151,10 +26099,6 @@
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N495">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
       <c r="O495" t="e">
         <f t="shared" si="61"/>
         <v>#DIV/0!</v>
@@ -26196,10 +26140,6 @@
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N496">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
       <c r="O496" t="e">
         <f t="shared" si="61"/>
         <v>#DIV/0!</v>
@@ -26240,10 +26180,6 @@
       <c r="M497" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="N497">
-        <f t="shared" si="60"/>
-        <v>0</v>
       </c>
       <c r="O497" t="e">
         <f t="shared" si="61"/>
